--- a/data/q2a_sites.xlsx
+++ b/data/q2a_sites.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94767BD-D6BE-5F40-AC35-4FCAA5CE44D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90B927-42FE-F842-9A8A-5CE2522C5DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F88DDB59-38D0-AA46-82AC-51FC22E0688B}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/q2a_sites.xlsx
+++ b/data/q2a_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90B927-42FE-F842-9A8A-5CE2522C5DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F75039-D0BF-9A48-8059-03946B48DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F88DDB59-38D0-AA46-82AC-51FC22E0688B}"/>
   </bookViews>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421C3EA-C4AE-214C-86FC-F1644C7B3181}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,311 +433,311 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2">
+        <v>-74.204406739999996</v>
+      </c>
+      <c r="C2">
+        <v>39.183304249999999</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-74.204406739999996</v>
+        <v>-74.207153320000003</v>
       </c>
       <c r="C3">
-        <v>39.183304249999999</v>
+        <v>39.104488809999999</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-74.207153320000003</v>
+        <v>-74.092545110000003</v>
       </c>
       <c r="C4">
-        <v>39.104488809999999</v>
+        <v>39.272987550000003</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>-74.092545110000003</v>
+        <v>-74.050598140000005</v>
       </c>
       <c r="C5">
-        <v>39.272987550000003</v>
+        <v>39.325799420000003</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-74.050598140000005</v>
+        <v>-74.130249019999994</v>
       </c>
       <c r="C6">
-        <v>39.325799420000003</v>
+        <v>39.21523131</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-74.130249019999994</v>
+        <v>-74.053344730000006</v>
       </c>
       <c r="C7">
-        <v>39.21523131</v>
+        <v>39.217359260000002</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>-74.053344730000006</v>
+        <v>-74.440612790000003</v>
       </c>
       <c r="C8">
         <v>39.217359260000002</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-74.440612790000003</v>
+        <v>-74.286804200000006</v>
       </c>
       <c r="C9">
-        <v>39.217359260000002</v>
+        <v>39.404366619999998</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>-74.286804200000006</v>
+        <v>-74.130249019999994</v>
       </c>
       <c r="C10">
-        <v>39.404366619999998</v>
+        <v>39.550647619999999</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-74.130249019999994</v>
+        <v>-74.004084370000001</v>
       </c>
       <c r="C11">
-        <v>39.550647619999999</v>
+        <v>39.47223048</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-74.004084370000001</v>
+        <v>-74.127502440000001</v>
       </c>
       <c r="C12">
-        <v>39.47223048</v>
+        <v>39.068246729999998</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>-74.127502440000001</v>
+        <v>-73.972531529999998</v>
       </c>
       <c r="C13">
-        <v>39.068246729999998</v>
+        <v>38.991053729999997</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>-73.972531529999998</v>
+        <v>-73.973693850000004</v>
       </c>
       <c r="C14">
-        <v>38.991053729999997</v>
+        <v>39.21523131</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>-73.973693850000004</v>
+        <v>-73.896789549999994</v>
       </c>
       <c r="C15">
-        <v>39.21523131</v>
+        <v>39.364032340000001</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>-73.896789549999994</v>
+        <v>-73.739540340000005</v>
       </c>
       <c r="C16">
-        <v>39.364032340000001</v>
+        <v>39.28829983</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>-73.739540340000005</v>
+        <v>-73.891296389999994</v>
       </c>
       <c r="C17">
-        <v>39.28829983</v>
+        <v>39.47648555</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>-73.891296389999994</v>
+        <v>-73.740234380000004</v>
       </c>
       <c r="C18">
-        <v>39.47648555</v>
+        <v>39.47224533</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>-73.740234380000004</v>
+        <v>-73.972531529999998</v>
       </c>
       <c r="C19">
-        <v>39.47224533</v>
+        <v>39.73416898</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>-73.972531529999998</v>
+        <v>-73.896789549999994</v>
       </c>
       <c r="C20">
-        <v>39.73416898</v>
+        <v>39.660685020000003</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>-73.896789549999994</v>
+        <v>-73.740234380000004</v>
       </c>
       <c r="C21">
-        <v>39.660685020000003</v>
+        <v>39.662799409999998</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>-73.740234380000004</v>
+        <v>-73.973693850000004</v>
       </c>
       <c r="C22">
-        <v>39.662799409999998</v>
+        <v>39.582407119999999</v>
       </c>
       <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-73.973693850000004</v>
-      </c>
-      <c r="C23">
-        <v>39.582407119999999</v>
-      </c>
-      <c r="D23">
         <v>31</v>
       </c>
     </row>

--- a/data/q2a_sites.xlsx
+++ b/data/q2a_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F75039-D0BF-9A48-8059-03946B48DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B92A9-5320-724A-983E-6F9A2D0F4D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F88DDB59-38D0-AA46-82AC-51FC22E0688B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -49,15 +49,24 @@
   <si>
     <t>Station</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,329 +429,1551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421C3EA-C4AE-214C-86FC-F1644C7B3181}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-74.204406739999996</v>
+        <v>39.931583330000002</v>
       </c>
       <c r="C2">
-        <v>39.183304249999999</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.053016670000005</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-74.207153320000003</v>
+        <v>39.910649999999997</v>
       </c>
       <c r="C3">
-        <v>39.104488809999999</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-73.969883330000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-74.092545110000003</v>
+        <v>39.786066669999997</v>
       </c>
       <c r="C4">
-        <v>39.272987550000003</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-73.970100000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-74.050598140000005</v>
+        <v>39.578533329999999</v>
       </c>
       <c r="C5">
-        <v>39.325799420000003</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.031966670000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-74.130249019999994</v>
+        <v>39.23288333</v>
       </c>
       <c r="C6">
-        <v>39.21523131</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-73.505483330000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-74.053344730000006</v>
+        <v>39.15945</v>
       </c>
       <c r="C7">
-        <v>39.217359260000002</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.557833329999994</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-74.440612790000003</v>
+        <v>39.214866669999999</v>
       </c>
       <c r="C8">
-        <v>39.217359260000002</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.616483329999994</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-74.286804200000006</v>
+        <v>39.153933330000001</v>
       </c>
       <c r="C9">
-        <v>39.404366619999998</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.664966669999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-74.130249019999994</v>
+        <v>38.902000000000001</v>
       </c>
       <c r="C10">
-        <v>39.550647619999999</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.926400000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-74.004084370000001</v>
+        <v>38.8446</v>
       </c>
       <c r="C11">
-        <v>39.47223048</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.974450000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-74.127502440000001</v>
+        <v>38.620449999999998</v>
       </c>
       <c r="C12">
-        <v>39.068246729999998</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.725016670000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-73.972531529999998</v>
+        <v>38.771850000000001</v>
       </c>
       <c r="C13">
-        <v>38.991053729999997</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.634299999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-73.973693850000004</v>
+        <v>38.757583330000003</v>
       </c>
       <c r="C14">
-        <v>39.21523131</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.777500000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-73.896789549999994</v>
+        <v>38.8185</v>
       </c>
       <c r="C15">
-        <v>39.364032340000001</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.842399999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-73.739540340000005</v>
+        <v>38.969299999999997</v>
       </c>
       <c r="C16">
-        <v>39.28829983</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.800749999999994</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-73.891296389999994</v>
+        <v>38.930283330000002</v>
       </c>
       <c r="C17">
-        <v>39.47648555</v>
-      </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.58583333</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-73.740234380000004</v>
+        <v>38.926049999999996</v>
       </c>
       <c r="C18">
-        <v>39.47224533</v>
-      </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.403066670000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-73.972531529999998</v>
+        <v>39.064283330000002</v>
       </c>
       <c r="C19">
-        <v>39.73416898</v>
-      </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.385850000000005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-73.896789549999994</v>
+        <v>39.177183329999998</v>
       </c>
       <c r="C20">
-        <v>39.660685020000003</v>
-      </c>
-      <c r="D20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.397000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-73.740234380000004</v>
+        <v>39.360500000000002</v>
       </c>
       <c r="C21">
-        <v>39.662799409999998</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-74.30926667</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-73.973693850000004</v>
+        <v>39.405316669999998</v>
       </c>
       <c r="C22">
-        <v>39.582407119999999</v>
-      </c>
-      <c r="D22">
+        <v>-74.319166670000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>39.645016669999997</v>
+      </c>
+      <c r="C23">
+        <v>-74.067949999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>39.698999999999998</v>
+      </c>
+      <c r="C24">
+        <v>-74.121166669999994</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>39.971416670000004</v>
+      </c>
+      <c r="C25">
+        <v>-74.059749999999994</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40.172233329999997</v>
+      </c>
+      <c r="C26">
+        <v>-73.950266670000005</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>40.184600000000003</v>
+      </c>
+      <c r="C27">
+        <v>-73.856533330000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>40.259866670000001</v>
+      </c>
+      <c r="C28">
+        <v>-73.98136667</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>40.438916669999998</v>
+      </c>
+      <c r="C29">
+        <v>-73.841066670000004</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>40.419249999999998</v>
+      </c>
+      <c r="C30">
+        <v>-73.928116669999994</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>40.467350000000003</v>
+      </c>
+      <c r="C31">
+        <v>-73.965166670000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>39.76948333</v>
+      </c>
+      <c r="C32">
+        <v>-73.860883329999993</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>39.753666670000001</v>
+      </c>
+      <c r="C33">
+        <v>-74.005966670000007</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>39.963066670000003</v>
+      </c>
+      <c r="C34">
+        <v>-74.027516669999997</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>40.119716670000003</v>
+      </c>
+      <c r="C35">
+        <v>-73.878600000000006</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>40.182916669999997</v>
+      </c>
+      <c r="C36">
+        <v>-73.91333333</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>40.45955</v>
+      </c>
+      <c r="C37">
+        <v>-73.985883329999993</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E37">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>40.381100000000004</v>
+      </c>
+      <c r="C38">
+        <v>-73.921833329999998</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E38">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>40.264000000000003</v>
+      </c>
+      <c r="C39">
+        <v>-73.967766670000003</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E39">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>40.18728333</v>
+      </c>
+      <c r="C40">
+        <v>-74.00278333</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40.094200000000001</v>
+      </c>
+      <c r="C41">
+        <v>-74.028816669999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>39.858449999999998</v>
+      </c>
+      <c r="C42">
+        <v>-74.046383329999998</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>39.804433330000002</v>
+      </c>
+      <c r="C43">
+        <v>-74.080633329999998</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E43">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>39.778866669999999</v>
+      </c>
+      <c r="C44">
+        <v>-74.054850000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E44">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>39.711100000000002</v>
+      </c>
+      <c r="C45">
+        <v>-74.115300000000005</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>39.625599999999999</v>
+      </c>
+      <c r="C46">
+        <v>-74.124183329999994</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>39.334600000000002</v>
+      </c>
+      <c r="C47">
+        <v>-74.362866670000003</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>39.327233329999999</v>
+      </c>
+      <c r="C48">
+        <v>-74.436400000000006</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E48">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>39.307433330000002</v>
+      </c>
+      <c r="C49">
+        <v>-74.442366669999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>38.82961667</v>
+      </c>
+      <c r="C50">
+        <v>-74.964366670000004</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>38.746400000000001</v>
+      </c>
+      <c r="C51">
+        <v>-74.871849999999995</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>38.913566670000002</v>
+      </c>
+      <c r="C52">
+        <v>-74.863183329999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>38.893433330000001</v>
+      </c>
+      <c r="C53">
+        <v>-74.741066669999995</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E53">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>38.751033329999999</v>
+      </c>
+      <c r="C54">
+        <v>-74.680549999999997</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E54">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>38.914099999999998</v>
+      </c>
+      <c r="C55">
+        <v>-74.462583330000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>38.93023333</v>
+      </c>
+      <c r="C56">
+        <v>-74.667950000000005</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E56">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>38.954683330000002</v>
+      </c>
+      <c r="C57">
+        <v>-74.828699999999998</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>39.141033329999999</v>
+      </c>
+      <c r="C58">
+        <v>-74.676950000000005</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>39.165833329999998</v>
+      </c>
+      <c r="C59">
+        <v>-74.497299999999996</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E59">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>39.357500000000002</v>
+      </c>
+      <c r="C60">
+        <v>-74.023816670000002</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>39.49335</v>
+      </c>
+      <c r="C61">
+        <v>-73.925150000000002</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E61">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>38.874000000000002</v>
+      </c>
+      <c r="C62">
+        <v>-74.567999999999998</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>38.723999999999997</v>
+      </c>
+      <c r="C63">
+        <v>-74.617999999999995</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>38.728000000000002</v>
+      </c>
+      <c r="C64">
+        <v>-74.671999999999997</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>38.905000000000001</v>
+      </c>
+      <c r="C65">
+        <v>-74.927999999999997</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>38.843000000000004</v>
+      </c>
+      <c r="C66">
+        <v>-74.968999999999994</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>38.798000000000002</v>
+      </c>
+      <c r="C67">
+        <v>-75.003</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>38.78</v>
+      </c>
+      <c r="C68">
+        <v>-74.805999999999997</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>38.973999999999997</v>
+      </c>
+      <c r="C69">
+        <v>-74.655000000000001</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>39.045999999999999</v>
+      </c>
+      <c r="C70">
+        <v>-74.742999999999995</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>39.06</v>
+      </c>
+      <c r="C71">
+        <v>-74.731999999999999</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>39.954999999999998</v>
+      </c>
+      <c r="C72">
+        <v>-73.975999999999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>39.228000000000002</v>
+      </c>
+      <c r="C73">
+        <v>-74.335999999999999</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>39.393000000000001</v>
+      </c>
+      <c r="C74">
+        <v>-73.989000000000004</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>39.595999999999997</v>
+      </c>
+      <c r="C75">
+        <v>-73.963999999999999</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>39.783000000000001</v>
+      </c>
+      <c r="C76">
+        <v>-73.864999999999995</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>40.180999999999997</v>
+      </c>
+      <c r="C77">
+        <v>-73.897999999999996</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>40.307000000000002</v>
+      </c>
+      <c r="C78">
+        <v>-73.921999999999997</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E78">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>40.387</v>
+      </c>
+      <c r="C79">
+        <v>-73.953000000000003</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>40.445999999999998</v>
+      </c>
+      <c r="C80">
+        <v>-73.971999999999994</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>40.35</v>
+      </c>
+      <c r="C81">
+        <v>-73.864000000000004</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>39.848999999999997</v>
+      </c>
+      <c r="C82">
+        <v>-74.078999999999994</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>40.22</v>
+      </c>
+      <c r="C83">
+        <v>-73.994</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>40.024000000000001</v>
+      </c>
+      <c r="C84">
+        <v>-74.034999999999997</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>39.767000000000003</v>
+      </c>
+      <c r="C85">
+        <v>-74.004000000000005</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>39.393000000000001</v>
+      </c>
+      <c r="C86">
+        <v>-74.234999999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>39.384</v>
+      </c>
+      <c r="C87">
+        <v>-74.334999999999994</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>39.317999999999998</v>
+      </c>
+      <c r="C88">
+        <v>-74.456000000000003</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>39.170999999999999</v>
+      </c>
+      <c r="C89">
+        <v>-74.498000000000005</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>39.076999999999998</v>
+      </c>
+      <c r="C90">
+        <v>-74.522000000000006</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/q2a_sites.xlsx
+++ b/data/q2a_sites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B92A9-5320-724A-983E-6F9A2D0F4D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5738E07-0740-A04E-BC23-6AF5E38148F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F88DDB59-38D0-AA46-82AC-51FC22E0688B}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421C3EA-C4AE-214C-86FC-F1644C7B3181}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
